--- a/DOC/AreaEstimates.xlsx
+++ b/DOC/AreaEstimates.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lbbaker/Documents/workspace/github/ece-cortical-MainResearch/DOC/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="54380" yWindow="4960" windowWidth="30760" windowHeight="19900" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Manager" sheetId="2" r:id="rId1"/>
     <sheet name="PE" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +31,7 @@
     <author>Lee Baker</author>
   </authors>
   <commentList>
-    <comment ref="F30" authorId="0">
+    <comment ref="F30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="123">
   <si>
     <t>logs/dfi/dfi_test_area_netlist.rpt:Total cell area:                 24158.880290</t>
   </si>
@@ -277,9 +282,6 @@
     <t>simd_wrapper</t>
   </si>
   <si>
-    <t>memory Controller</t>
-  </si>
-  <si>
     <t>NoC</t>
   </si>
   <si>
@@ -289,12 +291,6 @@
     <t>Write Control</t>
   </si>
   <si>
-    <t>Instructio Proc</t>
-  </si>
-  <si>
-    <t>read data proc</t>
-  </si>
-  <si>
     <t>System Controller</t>
   </si>
   <si>
@@ -307,9 +303,6 @@
     <t>Operation Decode</t>
   </si>
   <si>
-    <t>return Data Control</t>
-  </si>
-  <si>
     <t>SIMD</t>
   </si>
   <si>
@@ -367,12 +360,6 @@
     <t>area saving</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>logic</t>
-  </si>
-  <si>
     <t>Net Interconnect area:      undefined  (Wire load has zero net area)</t>
   </si>
   <si>
@@ -403,13 +390,52 @@
     <t>includes 16x32 fifos @260000</t>
   </si>
   <si>
-    <t>:w</t>
+    <t>Memory Controller</t>
+  </si>
+  <si>
+    <t>Instruction Proc</t>
+  </si>
+  <si>
+    <t>Read data proc</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Utilization</t>
+  </si>
+  <si>
+    <t>Utilization w/o TSV</t>
+  </si>
+  <si>
+    <t>Area available</t>
+  </si>
+  <si>
+    <t>Area used</t>
+  </si>
+  <si>
+    <t>Processing Engine</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>65nm (um)</t>
+  </si>
+  <si>
+    <t>28nm(um)</t>
+  </si>
+  <si>
+    <t>Return Data Control</t>
+  </si>
+  <si>
+    <t>Area Scaling 65nm -&gt; 28nm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -490,7 +516,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -498,8 +524,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="69">
+  <cellStyleXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -569,8 +658,126 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -593,8 +800,64 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="69">
+  <cellStyles count="187">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -629,6 +892,65 @@
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -663,10 +985,77 @@
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -992,125 +1381,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:AA68"/>
+  <dimension ref="C2:AF68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="R41" sqref="R41"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="AA24" sqref="AA24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="15" max="15" width="15.1640625" customWidth="1"/>
+    <col min="16" max="16" width="17.5" customWidth="1"/>
+    <col min="17" max="19" width="10.83203125" customWidth="1"/>
+    <col min="21" max="21" width="18.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="3:17">
+    <row r="2" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:17">
+    <row r="3" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:17">
+    <row r="4" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:17">
+    <row r="5" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:17">
+    <row r="6" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="3:17">
+    <row r="7" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="3:17">
+    <row r="8" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="3:17">
+      <c r="P8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="3:17">
+      <c r="N9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="7">
+        <f>Q9</f>
+        <v>1.6542344051783109</v>
+      </c>
+      <c r="P9" s="7">
+        <v>1.39</v>
+      </c>
+      <c r="Q9" s="7">
+        <f>SQRT(O19)</f>
+        <v>1.6542344051783109</v>
+      </c>
+    </row>
+    <row r="10" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="3:17">
+    <row r="11" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="3:17">
+    <row r="12" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="P12" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="3:17">
+      <c r="K12" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="N13" t="s">
-        <v>47</v>
-      </c>
-      <c r="O13" s="7">
-        <f>Q13</f>
-        <v>1.6431676725154984</v>
-      </c>
-      <c r="P13" s="7">
-        <v>1.39</v>
-      </c>
-      <c r="Q13" s="7">
-        <f>SQRT(O19)</f>
-        <v>1.6431676725154984</v>
-      </c>
-    </row>
-    <row r="14" spans="3:17">
+      <c r="K13" s="15">
+        <f>X59/X62</f>
+        <v>0.51355879341490751</v>
+      </c>
+      <c r="N13" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" s="35"/>
+    </row>
+    <row r="14" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>12</v>
       </c>
-      <c r="N14" t="s">
-        <v>95</v>
-      </c>
-      <c r="O14">
+      <c r="N14" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="O14" s="19">
         <v>2.79</v>
       </c>
     </row>
-    <row r="15" spans="3:17">
+    <row r="15" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="L15" t="s">
         <v>44</v>
       </c>
-      <c r="N15" t="s">
-        <v>96</v>
-      </c>
-      <c r="O15">
+      <c r="N15" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="O15" s="19">
         <v>2.68</v>
       </c>
     </row>
-    <row r="16" spans="3:17">
+    <row r="16" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="3:18">
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -1127,12 +1533,12 @@
         <f>L17*M17</f>
         <v>175</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="7">
         <f>N17/64</f>
         <v>2.734375</v>
       </c>
     </row>
-    <row r="18" spans="3:18">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="O18" t="s">
         <v>47</v>
       </c>
@@ -1143,7 +1549,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="3:18">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="K19" t="s">
         <v>46</v>
       </c>
@@ -1153,45 +1559,49 @@
       <c r="M19">
         <v>1.6559999999999999</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="7">
         <f>L19*M19</f>
         <v>2.43432</v>
       </c>
-      <c r="O19">
-        <v>2.7</v>
-      </c>
-      <c r="P19">
-        <f>O14*N19*(W52)+N19*O15*(1-W52)</f>
+      <c r="O19" s="7">
+        <f>O14*(K13)+O15*(1-K13)</f>
+        <v>2.73649146727564</v>
+      </c>
+      <c r="P19" s="7">
+        <f>O19*N19</f>
         <v>6.661495908618436</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="7">
         <f>H42/P19/1000000</f>
         <v>0.72393589460301333</v>
       </c>
       <c r="R19" s="10">
         <f>K42/(N19*1000000)</f>
-        <v>0.82255431891955633</v>
-      </c>
-    </row>
-    <row r="20" spans="3:18">
-      <c r="L20">
+        <v>0.81138076531937231</v>
+      </c>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="L20" s="7">
         <f>L19*SQRT(AVERAGE(O14,O15))</f>
         <v>2.4310618050555606</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="7">
         <f>M19*SQRT(AVERAGE(O14,O15))</f>
         <v>2.7386655436544274</v>
       </c>
-      <c r="P20">
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7">
         <f>L20*M20</f>
         <v>6.6578652000000007</v>
       </c>
+      <c r="Q20" s="7"/>
       <c r="R20" s="10"/>
     </row>
-    <row r="21" spans="3:18">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="R21" s="10"/>
     </row>
-    <row r="22" spans="3:18">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="P22" s="1" t="s">
         <v>28</v>
       </c>
@@ -1201,15 +1611,15 @@
       </c>
       <c r="R22" s="10">
         <f>(K42-K41)/(N19*1000000-K41)</f>
-        <v>0.79436078285049028</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18">
+        <v>0.78141191421007361</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="I25" t="s">
         <v>71</v>
       </c>
       <c r="K25" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P25" t="s">
         <v>31</v>
@@ -1219,7 +1629,7 @@
         <v>4663047.1360329045</v>
       </c>
     </row>
-    <row r="26" spans="3:18">
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="E26" t="s">
         <v>16</v>
       </c>
@@ -1251,7 +1661,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="3:18">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="E27" t="s">
         <v>29</v>
       </c>
@@ -1285,7 +1695,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="28" spans="3:18">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
         <v>30</v>
       </c>
@@ -1308,7 +1718,7 @@
         <v>28156.773115850978</v>
       </c>
     </row>
-    <row r="29" spans="3:18">
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
         <v>24</v>
       </c>
@@ -1342,12 +1752,12 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="30" spans="3:18">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
         <v>17</v>
       </c>
       <c r="F30" s="12">
-        <f>1280000-(Y40)</f>
+        <f>1280000-(AD40)</f>
         <v>1135088</v>
       </c>
       <c r="G30">
@@ -1384,7 +1794,7 @@
         <v>3.3228467999999998</v>
       </c>
     </row>
-    <row r="31" spans="3:18">
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="E31" t="s">
         <v>25</v>
       </c>
@@ -1418,7 +1828,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="3:18">
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
         <v>18</v>
       </c>
@@ -1444,8 +1854,17 @@
         <f>SUM(N29:N31)</f>
         <v>2495</v>
       </c>
-    </row>
-    <row r="33" spans="5:27">
+      <c r="Q32" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="R32" s="34"/>
+      <c r="S32" s="35"/>
+      <c r="V32" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="W32" s="35"/>
+    </row>
+    <row r="33" spans="5:32" x14ac:dyDescent="0.2">
       <c r="E33" t="s">
         <v>19</v>
       </c>
@@ -1467,14 +1886,26 @@
         <f t="shared" si="2"/>
         <v>19746.308418908477</v>
       </c>
-      <c r="Q33" t="s">
-        <v>103</v>
-      </c>
-      <c r="R33" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="5:27">
+      <c r="O33" s="26"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="R33" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="S33" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="U33" s="25"/>
+      <c r="V33" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="W33" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="5:32" x14ac:dyDescent="0.2">
       <c r="E34" t="s">
         <v>20</v>
       </c>
@@ -1503,15 +1934,34 @@
         <f>2048*2</f>
         <v>4096</v>
       </c>
-      <c r="P34" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q34" s="9">
+      <c r="P34" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q34" s="30">
         <f>I26+I27</f>
         <v>0.20611733011287103</v>
       </c>
-    </row>
-    <row r="35" spans="5:27">
+      <c r="R34" s="31">
+        <f>H26+H27</f>
+        <v>994000</v>
+      </c>
+      <c r="S34" s="31">
+        <f>K26+K27</f>
+        <v>363478.34385916719</v>
+      </c>
+      <c r="U34" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="V34" s="22">
+        <f>R43</f>
+        <v>4822496</v>
+      </c>
+      <c r="W34" s="22">
+        <f>S43</f>
+        <v>1975160.4246322545</v>
+      </c>
+    </row>
+    <row r="35" spans="5:32" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
         <v>21</v>
       </c>
@@ -1540,19 +1990,38 @@
         <f>12+5+3+2048/32</f>
         <v>84</v>
       </c>
-      <c r="P35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q35" s="9">
+      <c r="P35" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q35" s="30">
         <f>I29</f>
         <v>6.9466102201017899E-2</v>
       </c>
-      <c r="AA35">
+      <c r="R35" s="31">
+        <f>H29</f>
+        <v>335000</v>
+      </c>
+      <c r="S35" s="31">
+        <f>K29</f>
+        <v>122500.24667285813</v>
+      </c>
+      <c r="U35" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="V35" s="22">
+        <f>P19*1000000</f>
+        <v>6661495.9086184362</v>
+      </c>
+      <c r="W35" s="19">
+        <f>N19*1000000</f>
+        <v>2434320</v>
+      </c>
+      <c r="AF35">
         <f>12.5/8</f>
         <v>1.5625</v>
       </c>
     </row>
-    <row r="36" spans="5:27">
+    <row r="36" spans="5:32" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
         <v>22</v>
       </c>
@@ -1581,19 +2050,38 @@
         <f>SUM(N34:N35)</f>
         <v>4180</v>
       </c>
-      <c r="P36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q36" s="9">
+      <c r="P36" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q36" s="30">
         <f>I30</f>
         <v>0.47074709859790448</v>
       </c>
-      <c r="AA36">
+      <c r="R36" s="31">
+        <f>H30</f>
+        <v>2270176</v>
+      </c>
+      <c r="S36" s="31">
+        <f>K30</f>
+        <v>830140.65668896236</v>
+      </c>
+      <c r="U36" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="V36" s="24">
+        <f>V34/V35</f>
+        <v>0.72393589460301322</v>
+      </c>
+      <c r="W36" s="24">
+        <f>W34/W35</f>
+        <v>0.81138076531937231</v>
+      </c>
+      <c r="AF36">
         <f>14/8</f>
         <v>1.75</v>
       </c>
     </row>
-    <row r="37" spans="5:27">
+    <row r="37" spans="5:32" x14ac:dyDescent="0.2">
       <c r="E37" t="s">
         <v>23</v>
       </c>
@@ -1615,26 +2103,45 @@
         <f t="shared" si="2"/>
         <v>23282.360315405604</v>
       </c>
-      <c r="P37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q37" s="9">
+      <c r="P37" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q37" s="30">
         <f>I31</f>
         <v>6.6563041213512669E-2</v>
       </c>
-      <c r="X37" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y37">
+      <c r="R37" s="31">
+        <f>H31</f>
+        <v>321000</v>
+      </c>
+      <c r="S37" s="31">
+        <f>K31</f>
+        <v>117380.83337906706</v>
+      </c>
+      <c r="U37" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="V37" s="24">
+        <f>(R43-R41)/(V35-R41)</f>
+        <v>0.70937519692222395</v>
+      </c>
+      <c r="W37" s="24">
+        <f>(S43-S41)/(W35-S41)</f>
+        <v>0.78141191421007372</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD37">
         <f>37392</f>
         <v>37392</v>
       </c>
-      <c r="AA37">
-        <f>AA35*AA36</f>
+      <c r="AF37">
+        <f>AF35*AF36</f>
         <v>2.734375</v>
       </c>
     </row>
-    <row r="38" spans="5:27">
+    <row r="38" spans="5:32" x14ac:dyDescent="0.2">
       <c r="G38" s="2" t="s">
         <v>40</v>
       </c>
@@ -1654,25 +2161,33 @@
         <f>N32+N36</f>
         <v>6675</v>
       </c>
-      <c r="P38" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q38" s="9">
+      <c r="P38" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q38" s="30">
         <f>I35+I36+I37+I32</f>
         <v>1.732920048041512E-2</v>
       </c>
-      <c r="X38" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y38">
+      <c r="R38" s="31">
+        <f>H35+H36+H37+H32</f>
+        <v>83570</v>
+      </c>
+      <c r="S38" s="31">
+        <f>K35+K36+K37+K32</f>
+        <v>30559.240640151504</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD38">
         <v>28335</v>
       </c>
-      <c r="AA38">
-        <f>AA37*1000000</f>
+      <c r="AF38">
+        <f>AF37*1000000</f>
         <v>2734375</v>
       </c>
     </row>
-    <row r="39" spans="5:27">
+    <row r="39" spans="5:32" x14ac:dyDescent="0.2">
       <c r="E39" t="s">
         <v>26</v>
       </c>
@@ -1700,15 +2215,23 @@
       <c r="N39" s="2">
         <v>1</v>
       </c>
-      <c r="P39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q39" s="9">
+      <c r="P39" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q39" s="30">
         <f>I33+I34</f>
         <v>1.6174196930386256E-2</v>
       </c>
-    </row>
-    <row r="40" spans="5:27">
+      <c r="R39" s="31">
+        <f>H33+H34</f>
+        <v>78000</v>
+      </c>
+      <c r="S39" s="31">
+        <f>K33+K34</f>
+        <v>28522.44549397891</v>
+      </c>
+    </row>
+    <row r="40" spans="5:32" x14ac:dyDescent="0.2">
       <c r="G40" s="2" t="s">
         <v>40</v>
       </c>
@@ -1717,25 +2240,30 @@
         <v>4488746</v>
       </c>
       <c r="K40" s="13"/>
-      <c r="P40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q40" s="9">
+      <c r="P40" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q40" s="30">
         <f>I28</f>
         <v>1.5966835431278741E-2</v>
       </c>
-      <c r="R40" t="s">
-        <v>115</v>
-      </c>
-      <c r="X40" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y40">
-        <f>(Y37-Y38)*16</f>
+      <c r="R40" s="31">
+        <f>H28</f>
+        <v>77000</v>
+      </c>
+      <c r="S40" s="31">
+        <f>K28</f>
+        <v>28156.773115850978</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD40">
+        <f>(AD37-AD38)*16</f>
         <v>144912</v>
       </c>
     </row>
-    <row r="41" spans="5:27">
+    <row r="41" spans="5:32" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
         <v>27</v>
       </c>
@@ -1762,15 +2290,23 @@
         <f>N38+N39*N38</f>
         <v>13350</v>
       </c>
-      <c r="P41" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q41" s="9">
+      <c r="P41" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q41" s="30">
         <f>I41</f>
         <v>6.9206900327133503E-2</v>
       </c>
-    </row>
-    <row r="42" spans="5:27">
+      <c r="R41" s="31">
+        <f>H41</f>
+        <v>333750</v>
+      </c>
+      <c r="S41" s="31">
+        <f>K41</f>
+        <v>333750</v>
+      </c>
+    </row>
+    <row r="42" spans="5:32" x14ac:dyDescent="0.2">
       <c r="G42" s="3" t="s">
         <v>37</v>
       </c>
@@ -1779,8 +2315,8 @@
         <v>4822496</v>
       </c>
       <c r="K42" s="13">
-        <f>SUM(K26:L41)</f>
-        <v>2002360.4296322544</v>
+        <f>SUM(K26:K41)</f>
+        <v>1975160.4246322543</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>39</v>
@@ -1789,21 +2325,38 @@
         <f>N41/N27*1000000</f>
         <v>333750</v>
       </c>
-      <c r="P42" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q42" s="9">
+      <c r="P42" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q42" s="30">
         <f>I39</f>
         <v>6.8429294705480315E-2</v>
       </c>
-    </row>
-    <row r="43" spans="5:27">
-      <c r="Q43" s="9">
+      <c r="R42" s="31">
+        <f>H39</f>
+        <v>330000</v>
+      </c>
+      <c r="S42" s="31">
+        <f>K39</f>
+        <v>120671.88478221846</v>
+      </c>
+    </row>
+    <row r="43" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="P43" s="32"/>
+      <c r="Q43" s="30">
         <f>SUM(Q34:Q42)</f>
         <v>0.99999999999999989</v>
       </c>
-    </row>
-    <row r="46" spans="5:27">
+      <c r="R43" s="31">
+        <f>SUM(R34:R42)</f>
+        <v>4822496</v>
+      </c>
+      <c r="S43" s="31">
+        <f>SUM(S34:S42)</f>
+        <v>1975160.4246322545</v>
+      </c>
+    </row>
+    <row r="46" spans="5:32" x14ac:dyDescent="0.2">
       <c r="G46" t="s">
         <v>54</v>
       </c>
@@ -1817,7 +2370,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="5:27">
+    <row r="47" spans="5:32" x14ac:dyDescent="0.2">
       <c r="F47" s="1" t="s">
         <v>57</v>
       </c>
@@ -1840,7 +2393,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="48" spans="5:27">
+    <row r="48" spans="5:32" x14ac:dyDescent="0.2">
       <c r="J48" t="s">
         <v>53</v>
       </c>
@@ -1854,7 +2407,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="49" spans="5:24">
+    <row r="49" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E49" t="s">
         <v>55</v>
       </c>
@@ -1879,7 +2432,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="50" spans="5:24">
+    <row r="50" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E50" t="s">
         <v>61</v>
       </c>
@@ -1907,7 +2460,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="51" spans="5:24">
+    <row r="51" spans="5:24" x14ac:dyDescent="0.2">
       <c r="E51" t="s">
         <v>58</v>
       </c>
@@ -1923,11 +2476,8 @@
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
-      <c r="W51" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="5:24">
+    </row>
+    <row r="52" spans="5:24" x14ac:dyDescent="0.2">
       <c r="G52" s="8">
         <v>21</v>
       </c>
@@ -1941,14 +2491,10 @@
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
       <c r="P52" t="s">
-        <v>94</v>
-      </c>
-      <c r="W52" s="15">
-        <f>X59/X62</f>
-        <v>0.51355879341490751</v>
-      </c>
-    </row>
-    <row r="53" spans="5:24">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="5:24" x14ac:dyDescent="0.2">
       <c r="G53" s="8">
         <v>28</v>
       </c>
@@ -1957,13 +2503,13 @@
         <v>0.69090909090909103</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Q53">
         <v>1194054.8500000001</v>
       </c>
     </row>
-    <row r="54" spans="5:24">
+    <row r="54" spans="5:24" x14ac:dyDescent="0.2">
       <c r="G54" s="8">
         <v>65</v>
       </c>
@@ -1981,13 +2527,13 @@
         <v>58</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q54">
         <v>57651.839999999997</v>
       </c>
     </row>
-    <row r="55" spans="5:24">
+    <row r="55" spans="5:24" x14ac:dyDescent="0.2">
       <c r="I55">
         <v>65</v>
       </c>
@@ -1999,35 +2545,35 @@
         <v>1.9249999999999998</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q55">
         <v>1050958.46</v>
       </c>
     </row>
-    <row r="56" spans="5:24">
+    <row r="56" spans="5:24" x14ac:dyDescent="0.2">
       <c r="P56" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Q56">
         <v>2370165.83</v>
       </c>
       <c r="W56" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="X56">
         <v>1194054.8478250001</v>
       </c>
     </row>
-    <row r="57" spans="5:24">
+    <row r="57" spans="5:24" x14ac:dyDescent="0.2">
       <c r="W57" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="X57">
         <v>57651.841992000001</v>
       </c>
     </row>
-    <row r="58" spans="5:24">
+    <row r="58" spans="5:24" x14ac:dyDescent="0.2">
       <c r="P58" s="1" t="s">
         <v>37</v>
       </c>
@@ -2036,63 +2582,63 @@
         <v>4672830.9800000004</v>
       </c>
       <c r="W58" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="X58">
         <v>1050958.459363</v>
       </c>
     </row>
-    <row r="59" spans="5:24">
+    <row r="59" spans="5:24" x14ac:dyDescent="0.2">
       <c r="W59" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="X59">
         <v>2370165.828125</v>
       </c>
     </row>
-    <row r="60" spans="5:24">
+    <row r="60" spans="5:24" x14ac:dyDescent="0.2">
       <c r="H60" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q60" s="10">
         <f>Q56/Q58</f>
         <v>0.50722267510732855</v>
       </c>
       <c r="W60" t="s">
+        <v>99</v>
+      </c>
+      <c r="X60" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="H61" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="5:24" x14ac:dyDescent="0.2">
+      <c r="P62" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q62" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="R62" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="W62" t="s">
         <v>105</v>
-      </c>
-      <c r="X60" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="61" spans="5:24">
-      <c r="H61" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="5:24">
-      <c r="P62" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q62" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="R62" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="W62" t="s">
-        <v>111</v>
       </c>
       <c r="X62">
         <v>4615179.1353129996</v>
       </c>
     </row>
-    <row r="63" spans="5:24">
+    <row r="63" spans="5:24" x14ac:dyDescent="0.2">
       <c r="P63" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q63" s="4">
         <f>H41</f>
@@ -2103,9 +2649,9 @@
         <v>333750</v>
       </c>
     </row>
-    <row r="64" spans="5:24">
+    <row r="64" spans="5:24" x14ac:dyDescent="0.2">
       <c r="P64" s="11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q64" s="4">
         <f>(SUM(H26:H37)+H39)*(1-Q60)</f>
@@ -2116,9 +2662,9 @@
         <v>825355.3156726415</v>
       </c>
     </row>
-    <row r="65" spans="16:18">
+    <row r="65" spans="16:18" x14ac:dyDescent="0.2">
       <c r="P65" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q65" s="4">
         <f>(SUM(H26:H37)+H39)*(Q60)</f>
@@ -2129,7 +2675,7 @@
         <v>816055.10895961314</v>
       </c>
     </row>
-    <row r="66" spans="16:18">
+    <row r="66" spans="16:18" x14ac:dyDescent="0.2">
       <c r="Q66" s="4">
         <f>SUM(Q63:Q65)</f>
         <v>4822496</v>
@@ -2139,7 +2685,7 @@
         <v>1975160.4246322548</v>
       </c>
     </row>
-    <row r="68" spans="16:18">
+    <row r="68" spans="16:18" x14ac:dyDescent="0.2">
       <c r="Q68" t="s">
         <v>49</v>
       </c>
@@ -2149,6 +2695,11 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="N13:O13"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
@@ -2162,68 +2713,70 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:R67"/>
+  <dimension ref="C2:R72"/>
   <sheetViews>
-    <sheetView topLeftCell="B23" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="35" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:17">
+    <row r="2" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:17">
+    <row r="3" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:17">
+    <row r="4" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:17">
+    <row r="5" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:17">
+    <row r="6" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="3:17">
+    <row r="7" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="3:17">
+    <row r="8" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="3:17">
+    <row r="9" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="3:17">
+    <row r="10" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="3:17">
+    <row r="11" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="3:17">
+    <row r="12" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>10</v>
       </c>
@@ -2234,7 +2787,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="3:17">
+    <row r="13" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -2253,12 +2806,12 @@
         <v>1.61245154965971</v>
       </c>
     </row>
-    <row r="14" spans="3:17">
+    <row r="14" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="3:17">
+    <row r="15" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>13</v>
       </c>
@@ -2266,12 +2819,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="3:17">
+    <row r="16" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="3:18">
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -2293,7 +2846,7 @@
         <v>2.734375</v>
       </c>
     </row>
-    <row r="18" spans="3:18">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="O18" t="s">
         <v>47</v>
       </c>
@@ -2304,7 +2857,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="3:18">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="K19" t="s">
         <v>46</v>
       </c>
@@ -2330,7 +2883,7 @@
         <v>0.53625027940096437</v>
       </c>
     </row>
-    <row r="22" spans="3:18">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="P22" s="1" t="s">
         <v>28</v>
       </c>
@@ -2339,7 +2892,7 @@
         <v>0.5268259307828268</v>
       </c>
     </row>
-    <row r="25" spans="3:18">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="I25" t="s">
         <v>71</v>
       </c>
@@ -2351,7 +2904,7 @@
         <v>4384379.9999999991</v>
       </c>
     </row>
-    <row r="26" spans="3:18">
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="E26" t="s">
         <v>64</v>
       </c>
@@ -2362,7 +2915,7 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <f t="shared" ref="H26:H33" si="0">F26*G26</f>
+        <f t="shared" ref="H26:H32" si="0">F26*G26</f>
         <v>550000</v>
       </c>
       <c r="I26" s="9">
@@ -2379,7 +2932,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="3:18">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="E27" t="s">
         <v>65</v>
       </c>
@@ -2409,7 +2962,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="28" spans="3:18">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
         <v>66</v>
       </c>
@@ -2428,7 +2981,7 @@
         <v>9.5273539263118715E-3</v>
       </c>
     </row>
-    <row r="29" spans="3:18">
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
         <v>67</v>
       </c>
@@ -2458,7 +3011,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="30" spans="3:18">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
         <v>68</v>
       </c>
@@ -2495,7 +3048,7 @@
         <v>3.2882849999999997</v>
       </c>
     </row>
-    <row r="31" spans="3:18">
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="E31" t="s">
         <v>69</v>
       </c>
@@ -2525,7 +3078,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="3:18">
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
         <v>70</v>
       </c>
@@ -2548,7 +3101,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="33" spans="5:14">
+    <row r="33" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E33" t="s">
         <v>72</v>
       </c>
@@ -2566,10 +3119,10 @@
         <v>0.15094901377000372</v>
       </c>
       <c r="J33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="5:14">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="5:14" x14ac:dyDescent="0.2">
       <c r="J34" s="9">
         <f>SUM(I26:I37)+I41+I39</f>
         <v>1</v>
@@ -2581,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="5:14">
+    <row r="35" spans="5:14" x14ac:dyDescent="0.2">
       <c r="M35" t="s">
         <v>36</v>
       </c>
@@ -2589,7 +3142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="5:14">
+    <row r="36" spans="5:14" x14ac:dyDescent="0.2">
       <c r="M36" s="2" t="s">
         <v>40</v>
       </c>
@@ -2598,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="5:14">
+    <row r="38" spans="5:14" x14ac:dyDescent="0.2">
       <c r="G38" s="2" t="s">
         <v>40</v>
       </c>
@@ -2618,7 +3171,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="39" spans="5:14">
+    <row r="39" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E39" t="s">
         <v>26</v>
       </c>
@@ -2643,7 +3196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="5:14">
+    <row r="40" spans="5:14" x14ac:dyDescent="0.2">
       <c r="G40" s="2" t="s">
         <v>40</v>
       </c>
@@ -2652,7 +3205,7 @@
         <v>3234000</v>
       </c>
     </row>
-    <row r="41" spans="5:14">
+    <row r="41" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
         <v>27</v>
       </c>
@@ -2676,7 +3229,7 @@
         <v>4990</v>
       </c>
     </row>
-    <row r="42" spans="5:14">
+    <row r="42" spans="5:14" x14ac:dyDescent="0.2">
       <c r="G42" s="3" t="s">
         <v>37</v>
       </c>
@@ -2692,7 +3245,7 @@
         <v>124750</v>
       </c>
     </row>
-    <row r="46" spans="5:14">
+    <row r="46" spans="5:14" x14ac:dyDescent="0.2">
       <c r="G46" t="s">
         <v>54</v>
       </c>
@@ -2706,7 +3259,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="5:14">
+    <row r="47" spans="5:14" x14ac:dyDescent="0.2">
       <c r="F47" s="1" t="s">
         <v>57</v>
       </c>
@@ -2729,7 +3282,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="48" spans="5:14">
+    <row r="48" spans="5:14" x14ac:dyDescent="0.2">
       <c r="J48" t="s">
         <v>53</v>
       </c>
@@ -2743,7 +3296,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="49" spans="5:13">
+    <row r="49" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E49" t="s">
         <v>55</v>
       </c>
@@ -2768,7 +3321,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="50" spans="5:13">
+    <row r="50" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E50" t="s">
         <v>61</v>
       </c>
@@ -2796,7 +3349,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="51" spans="5:13">
+    <row r="51" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E51" t="s">
         <v>58</v>
       </c>
@@ -2813,7 +3366,7 @@
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
     </row>
-    <row r="52" spans="5:13">
+    <row r="52" spans="5:18" x14ac:dyDescent="0.2">
       <c r="G52" s="8">
         <v>21</v>
       </c>
@@ -2827,7 +3380,7 @@
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
     </row>
-    <row r="53" spans="5:13">
+    <row r="53" spans="5:18" x14ac:dyDescent="0.2">
       <c r="G53" s="8">
         <v>28</v>
       </c>
@@ -2836,7 +3389,7 @@
         <v>0.69090909090909103</v>
       </c>
     </row>
-    <row r="54" spans="5:13">
+    <row r="54" spans="5:18" x14ac:dyDescent="0.2">
       <c r="G54" s="8">
         <v>65</v>
       </c>
@@ -2854,7 +3407,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="5:13">
+    <row r="55" spans="5:18" x14ac:dyDescent="0.2">
       <c r="I55">
         <v>65</v>
       </c>
@@ -2866,94 +3419,263 @@
         <v>1.9249999999999998</v>
       </c>
     </row>
-    <row r="58" spans="5:13">
-      <c r="E58" t="s">
-        <v>82</v>
-      </c>
-      <c r="F58" s="9">
+    <row r="59" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="N59" s="16"/>
+    </row>
+    <row r="60" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="J60" s="1"/>
+      <c r="Q60" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="R60" s="35"/>
+    </row>
+    <row r="61" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="K61" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="L61" s="34"/>
+      <c r="M61" s="35"/>
+      <c r="P61" s="25"/>
+      <c r="Q61" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="R61" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="J62" s="26"/>
+      <c r="K62" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="L62" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="M62" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="P62" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q62" s="22">
+        <f>L72</f>
+        <v>3358750</v>
+      </c>
+      <c r="R62" s="22">
+        <f>M72</f>
+        <v>1306555.256356112</v>
+      </c>
+    </row>
+    <row r="63" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="J63" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="K63" s="21">
         <f>I27</f>
         <v>3.1261630070710832E-2</v>
       </c>
-    </row>
-    <row r="59" spans="5:13">
-      <c r="E59" t="s">
-        <v>83</v>
-      </c>
-      <c r="F59" s="9">
+      <c r="L63" s="22">
+        <f>H27</f>
+        <v>105000</v>
+      </c>
+      <c r="M63" s="22">
+        <f>IF(EXACT(J63,"TSV"),L63,L63/Manager!$O$19)</f>
+        <v>38370.300531042587</v>
+      </c>
+      <c r="P63" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q63" s="22">
+        <f>Manager!P19*1000000</f>
+        <v>6661495.9086184362</v>
+      </c>
+      <c r="R63" s="22">
+        <f>Manager!N19*1000000</f>
+        <v>2434320</v>
+      </c>
+    </row>
+    <row r="64" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="J64" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="K64" s="21">
         <f>I31+I28</f>
         <v>1.4588760699665054E-2</v>
       </c>
-    </row>
-    <row r="60" spans="5:13">
-      <c r="E60" t="s">
+      <c r="L64" s="22">
+        <f>H31+H28</f>
+        <v>49000</v>
+      </c>
+      <c r="M64" s="22">
+        <f>IF(EXACT(J64,"TSV"),L64,L64/Manager!$O$19)</f>
+        <v>17906.140247819876</v>
+      </c>
+      <c r="P64" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="F60" s="9">
+      <c r="Q64" s="24">
+        <f>Q62/Q63</f>
+        <v>0.50420356719795534</v>
+      </c>
+      <c r="R64" s="24">
+        <f>R62/R63</f>
+        <v>0.53672288620892572</v>
+      </c>
+    </row>
+    <row r="65" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J65" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="K65" s="21">
         <f>I33</f>
         <v>0.15094901377000372</v>
       </c>
-    </row>
-    <row r="61" spans="5:13">
-      <c r="E61" t="s">
-        <v>84</v>
-      </c>
-      <c r="F61" s="9">
+      <c r="L65" s="22">
+        <f>H33</f>
+        <v>507000</v>
+      </c>
+      <c r="M65" s="22">
+        <f>IF(EXACT(J65,"TSV"),L65,L65/Manager!$O$19)</f>
+        <v>185273.73684989134</v>
+      </c>
+      <c r="P65" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q65" s="24">
+        <f>(L72-L70)/(Q63-L70)</f>
+        <v>0.49474158017005088</v>
+      </c>
+      <c r="R65" s="24">
+        <f>(M72-M70)/(R63-M70)</f>
+        <v>0.51169925845768349</v>
+      </c>
+    </row>
+    <row r="66" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J66" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="K66" s="21">
         <f>I29</f>
         <v>0.17863788611834761</v>
       </c>
-    </row>
-    <row r="62" spans="5:13">
-      <c r="E62" t="s">
-        <v>85</v>
-      </c>
-      <c r="F62" s="9">
+      <c r="L66" s="22">
+        <f>H29</f>
+        <v>600000</v>
+      </c>
+      <c r="M66" s="22">
+        <f>IF(EXACT(J66,"TSV"),L66,L66/Manager!$O$19)</f>
+        <v>219258.86017738623</v>
+      </c>
+    </row>
+    <row r="67" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J67" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="K67" s="21">
         <f>I30</f>
         <v>0.4001488649050986</v>
       </c>
-    </row>
-    <row r="63" spans="5:13">
-      <c r="E63" t="s">
-        <v>86</v>
-      </c>
-      <c r="F63" s="9">
+      <c r="L67" s="22">
+        <f>H30</f>
+        <v>1344000</v>
+      </c>
+      <c r="M67" s="22">
+        <f>IF(EXACT(J67,"TSV"),L67,L67/Manager!$O$19)</f>
+        <v>491139.84679734515</v>
+      </c>
+    </row>
+    <row r="68" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J68" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="K68" s="21">
         <f>I32</f>
         <v>1.9054707852623743E-2</v>
       </c>
-    </row>
-    <row r="64" spans="5:13">
-      <c r="E64" t="s">
-        <v>87</v>
-      </c>
-      <c r="F64" s="9">
+      <c r="L68" s="22">
+        <f>H32</f>
+        <v>64000</v>
+      </c>
+      <c r="M68" s="22">
+        <f>IF(EXACT(J68,"TSV"),L68,L68/Manager!$O$19)</f>
+        <v>23387.611752254528</v>
+      </c>
+    </row>
+    <row r="69" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J69" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="K69" s="21">
         <f>I26</f>
         <v>0.16375139560848531</v>
       </c>
-    </row>
-    <row r="65" spans="5:6">
-      <c r="E65" t="s">
-        <v>81</v>
-      </c>
-      <c r="F65" s="9">
+      <c r="L69" s="22">
+        <f>H26</f>
+        <v>550000</v>
+      </c>
+      <c r="M69" s="22">
+        <f>IF(EXACT(J69,"TSV"),L69,L69/Manager!$O$19)</f>
+        <v>200987.28849593736</v>
+      </c>
+    </row>
+    <row r="70" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J70" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="K70" s="21">
         <f>I41</f>
         <v>3.7141793822106438E-2</v>
       </c>
-    </row>
-    <row r="66" spans="5:6">
-      <c r="E66" t="s">
-        <v>80</v>
-      </c>
-      <c r="F66" s="9">
+      <c r="L70" s="22">
+        <f>H41</f>
+        <v>124750</v>
+      </c>
+      <c r="M70" s="22">
+        <f>IF(EXACT(J70,"TSV"),L70,L70/Manager!$O$19)</f>
+        <v>124750</v>
+      </c>
+    </row>
+    <row r="71" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J71" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="K71" s="21">
         <f>I39</f>
         <v>4.4659471529586896E-3</v>
       </c>
-    </row>
-    <row r="67" spans="5:6">
-      <c r="F67" s="9">
-        <f>SUM(F58:F66)</f>
+      <c r="L71" s="22">
+        <f>H39</f>
+        <v>15000</v>
+      </c>
+      <c r="M71" s="22">
+        <f>IF(EXACT(J71,"TSV"),L71,L71/Manager!$O$19)</f>
+        <v>5481.4715044346558</v>
+      </c>
+    </row>
+    <row r="72" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="J72" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="K72" s="21">
+        <f>SUM(K63:K71)</f>
         <v>1</v>
       </c>
+      <c r="L72" s="22">
+        <f>SUM(L63:L71)</f>
+        <v>3358750</v>
+      </c>
+      <c r="M72" s="22">
+        <f>SUM(M63:M71)</f>
+        <v>1306555.256356112</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="K61:M61"/>
+    <mergeCell ref="Q60:R60"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -2968,18 +3690,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E4:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15:L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="5:8">
+    <row r="4" spans="5:8" x14ac:dyDescent="0.2">
       <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="5:8">
+    <row r="5" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E5">
         <f>Manager!H40</f>
         <v>4488746</v>
@@ -2997,10 +3719,10 @@
         <v>7722746</v>
       </c>
     </row>
-    <row r="6" spans="5:8">
+    <row r="6" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E6">
         <f>E5/Manager!O19</f>
-        <v>1662498.5185185184</v>
+        <v>1640328.8859763362</v>
       </c>
       <c r="F6">
         <f>F5/PE!O19</f>
@@ -3008,11 +3730,11 @@
       </c>
       <c r="G6">
         <f>SUM(E6:F6)</f>
-        <v>2906344.6723646722</v>
+        <v>2884175.03982249</v>
       </c>
       <c r="H6">
         <f>G6*H$4</f>
-        <v>2906344.6723646722</v>
+        <v>2884175.03982249</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/AreaEstimates.xlsx
+++ b/DOC/AreaEstimates.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lbbaker/Documents/workspace/github/ece-cortical-MainResearch/DOC/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27040" tabRatio="500"/>
+    <workbookView xWindow="4140" yWindow="2040" windowWidth="51200" windowHeight="27040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Manager" sheetId="2" r:id="rId1"/>
     <sheet name="PE" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +26,7 @@
     <author>Lee Baker</author>
   </authors>
   <commentList>
-    <comment ref="F30" authorId="0" shapeId="0">
+    <comment ref="F30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="124">
   <si>
     <t>logs/dfi/dfi_test_area_netlist.rpt:Total cell area:                 24158.880290</t>
   </si>
@@ -420,22 +415,25 @@
     <t>Manager</t>
   </si>
   <si>
-    <t>65nm (um)</t>
-  </si>
-  <si>
-    <t>28nm(um)</t>
-  </si>
-  <si>
     <t>Return Data Control</t>
   </si>
   <si>
     <t>Area Scaling 65nm -&gt; 28nm</t>
+  </si>
+  <si>
+    <t>um/mm</t>
+  </si>
+  <si>
+    <t>65nm (mm)</t>
+  </si>
+  <si>
+    <t>28nm (mm)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -588,8 +586,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="187">
+  <cellStyleXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -819,9 +849,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -841,9 +868,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -856,8 +880,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="187">
+  <cellStyles count="219">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -951,6 +981,22 @@
     <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1044,6 +1090,22 @@
     <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1383,49 +1445,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:AF68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="AA24" sqref="AA24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="U32" sqref="U32:W37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="15" max="15" width="15.1640625" customWidth="1"/>
     <col min="16" max="16" width="17.5" customWidth="1"/>
     <col min="17" max="19" width="10.83203125" customWidth="1"/>
-    <col min="21" max="21" width="18.33203125" customWidth="1"/>
+    <col min="21" max="21" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:17">
       <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:17">
       <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:17">
       <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:17">
       <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:17">
       <c r="C6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:17">
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:17">
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -1436,7 +1498,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:17">
       <c r="C9" t="s">
         <v>7</v>
       </c>
@@ -1455,17 +1517,17 @@
         <v>1.6542344051783109</v>
       </c>
     </row>
-    <row r="10" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:17">
       <c r="C10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:17">
       <c r="C11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:17">
       <c r="C12" t="s">
         <v>10</v>
       </c>
@@ -1473,7 +1535,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:17">
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -1481,12 +1543,12 @@
         <f>X59/X62</f>
         <v>0.51355879341490751</v>
       </c>
-      <c r="N13" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="O13" s="35"/>
-    </row>
-    <row r="14" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="N13" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="O13" s="33"/>
+    </row>
+    <row r="14" spans="3:17">
       <c r="C14" t="s">
         <v>12</v>
       </c>
@@ -1497,7 +1559,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="15" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:17">
       <c r="C15" t="s">
         <v>13</v>
       </c>
@@ -1511,12 +1573,12 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="16" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:17">
       <c r="C16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:23">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -1538,7 +1600,7 @@
         <v>2.734375</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23">
       <c r="O18" t="s">
         <v>47</v>
       </c>
@@ -1549,7 +1611,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23">
       <c r="K19" t="s">
         <v>46</v>
       </c>
@@ -1580,7 +1642,7 @@
         <v>0.81138076531937231</v>
       </c>
     </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:23">
       <c r="L20" s="7">
         <f>L19*SQRT(AVERAGE(O14,O15))</f>
         <v>2.4310618050555606</v>
@@ -1598,10 +1660,10 @@
       <c r="Q20" s="7"/>
       <c r="R20" s="10"/>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23">
       <c r="R21" s="10"/>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23">
       <c r="P22" s="1" t="s">
         <v>28</v>
       </c>
@@ -1614,7 +1676,7 @@
         <v>0.78141191421007361</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23">
       <c r="I25" t="s">
         <v>71</v>
       </c>
@@ -1629,7 +1691,7 @@
         <v>4663047.1360329045</v>
       </c>
     </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:23">
       <c r="E26" t="s">
         <v>16</v>
       </c>
@@ -1661,7 +1723,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23">
       <c r="E27" t="s">
         <v>29</v>
       </c>
@@ -1695,7 +1757,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23">
       <c r="E28" t="s">
         <v>30</v>
       </c>
@@ -1718,7 +1780,7 @@
         <v>28156.773115850978</v>
       </c>
     </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:23">
       <c r="E29" t="s">
         <v>24</v>
       </c>
@@ -1752,7 +1814,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23">
       <c r="E30" t="s">
         <v>17</v>
       </c>
@@ -1794,7 +1856,7 @@
         <v>3.3228467999999998</v>
       </c>
     </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:23">
       <c r="E31" t="s">
         <v>25</v>
       </c>
@@ -1828,7 +1890,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:23">
       <c r="E32" t="s">
         <v>18</v>
       </c>
@@ -1854,17 +1916,17 @@
         <f>SUM(N29:N31)</f>
         <v>2495</v>
       </c>
-      <c r="Q32" s="33" t="s">
+      <c r="Q32" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="R32" s="34"/>
-      <c r="S32" s="35"/>
-      <c r="V32" s="33" t="s">
+      <c r="R32" s="32"/>
+      <c r="S32" s="33"/>
+      <c r="V32" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="W32" s="35"/>
-    </row>
-    <row r="33" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="W32" s="33"/>
+    </row>
+    <row r="33" spans="5:32">
       <c r="E33" t="s">
         <v>19</v>
       </c>
@@ -1886,26 +1948,26 @@
         <f t="shared" si="2"/>
         <v>19746.308418908477</v>
       </c>
-      <c r="O33" s="26"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="28" t="s">
+      <c r="O33" s="25"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="R33" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="S33" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="U33" s="25"/>
-      <c r="V33" s="23" t="s">
+      <c r="R33" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="S33" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="U33" s="24"/>
+      <c r="V33" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="W33" s="23" t="s">
+      <c r="W33" s="22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="5:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="5:32">
       <c r="E34" t="s">
         <v>20</v>
       </c>
@@ -1934,34 +1996,34 @@
         <f>2048*2</f>
         <v>4096</v>
       </c>
-      <c r="P34" s="29" t="s">
+      <c r="P34" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="Q34" s="30">
+      <c r="Q34" s="29">
         <f>I26+I27</f>
         <v>0.20611733011287103</v>
       </c>
-      <c r="R34" s="31">
-        <f>H26+H27</f>
-        <v>994000</v>
-      </c>
-      <c r="S34" s="31">
-        <f>K26+K27</f>
-        <v>363478.34385916719</v>
+      <c r="R34" s="35">
+        <f>(H26+H27)/$S$46</f>
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="S34" s="35">
+        <f>(K26+K27)/$S$46</f>
+        <v>0.36347834385916716</v>
       </c>
       <c r="U34" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="V34" s="22">
+      <c r="V34" s="34">
         <f>R43</f>
-        <v>4822496</v>
-      </c>
-      <c r="W34" s="22">
+        <v>4.822496000000001</v>
+      </c>
+      <c r="W34" s="34">
         <f>S43</f>
-        <v>1975160.4246322545</v>
-      </c>
-    </row>
-    <row r="35" spans="5:32" x14ac:dyDescent="0.2">
+        <v>1.9751604246322549</v>
+      </c>
+    </row>
+    <row r="35" spans="5:32">
       <c r="E35" t="s">
         <v>21</v>
       </c>
@@ -1990,38 +2052,38 @@
         <f>12+5+3+2048/32</f>
         <v>84</v>
       </c>
-      <c r="P35" s="29" t="s">
+      <c r="P35" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="Q35" s="30">
+      <c r="Q35" s="29">
         <f>I29</f>
         <v>6.9466102201017899E-2</v>
       </c>
-      <c r="R35" s="31">
-        <f>H29</f>
-        <v>335000</v>
-      </c>
-      <c r="S35" s="31">
-        <f>K29</f>
-        <v>122500.24667285813</v>
+      <c r="R35" s="35">
+        <f>H29/$S$46</f>
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="S35" s="35">
+        <f>K29/$S$46</f>
+        <v>0.12250024667285814</v>
       </c>
       <c r="U35" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="V35" s="22">
-        <f>P19*1000000</f>
-        <v>6661495.9086184362</v>
-      </c>
-      <c r="W35" s="19">
-        <f>N19*1000000</f>
-        <v>2434320</v>
+      <c r="V35" s="34">
+        <f>P19</f>
+        <v>6.661495908618436</v>
+      </c>
+      <c r="W35" s="34">
+        <f>N19</f>
+        <v>2.43432</v>
       </c>
       <c r="AF35">
         <f>12.5/8</f>
         <v>1.5625</v>
       </c>
     </row>
-    <row r="36" spans="5:32" x14ac:dyDescent="0.2">
+    <row r="36" spans="5:32">
       <c r="E36" t="s">
         <v>22</v>
       </c>
@@ -2050,38 +2112,38 @@
         <f>SUM(N34:N35)</f>
         <v>4180</v>
       </c>
-      <c r="P36" s="29" t="s">
+      <c r="P36" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="Q36" s="30">
+      <c r="Q36" s="29">
         <f>I30</f>
         <v>0.47074709859790448</v>
       </c>
-      <c r="R36" s="31">
-        <f>H30</f>
-        <v>2270176</v>
-      </c>
-      <c r="S36" s="31">
-        <f>K30</f>
-        <v>830140.65668896236</v>
+      <c r="R36" s="35">
+        <f>H30/$S$46</f>
+        <v>2.2701760000000002</v>
+      </c>
+      <c r="S36" s="35">
+        <f>K30/$S$46</f>
+        <v>0.83014065668896242</v>
       </c>
       <c r="U36" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="V36" s="24">
+      <c r="V36" s="23">
         <f>V34/V35</f>
-        <v>0.72393589460301322</v>
-      </c>
-      <c r="W36" s="24">
+        <v>0.72393589460301344</v>
+      </c>
+      <c r="W36" s="23">
         <f>W34/W35</f>
-        <v>0.81138076531937231</v>
+        <v>0.81138076531937253</v>
       </c>
       <c r="AF36">
         <f>14/8</f>
         <v>1.75</v>
       </c>
     </row>
-    <row r="37" spans="5:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="5:32">
       <c r="E37" t="s">
         <v>23</v>
       </c>
@@ -2103,31 +2165,31 @@
         <f t="shared" si="2"/>
         <v>23282.360315405604</v>
       </c>
-      <c r="P37" s="29" t="s">
+      <c r="P37" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="Q37" s="30">
+      <c r="Q37" s="29">
         <f>I31</f>
         <v>6.6563041213512669E-2</v>
       </c>
-      <c r="R37" s="31">
-        <f>H31</f>
-        <v>321000</v>
-      </c>
-      <c r="S37" s="31">
-        <f>K31</f>
-        <v>117380.83337906706</v>
+      <c r="R37" s="35">
+        <f>H31/$S$46</f>
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="S37" s="35">
+        <f>K31/$S$46</f>
+        <v>0.11738083337906706</v>
       </c>
       <c r="U37" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="V37" s="24">
+      <c r="V37" s="23">
         <f>(R43-R41)/(V35-R41)</f>
-        <v>0.70937519692222395</v>
-      </c>
-      <c r="W37" s="24">
+        <v>0.70937519692222406</v>
+      </c>
+      <c r="W37" s="23">
         <f>(S43-S41)/(W35-S41)</f>
-        <v>0.78141191421007372</v>
+        <v>0.78141191421007383</v>
       </c>
       <c r="AC37" t="s">
         <v>96</v>
@@ -2141,7 +2203,7 @@
         <v>2.734375</v>
       </c>
     </row>
-    <row r="38" spans="5:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="5:32">
       <c r="G38" s="2" t="s">
         <v>40</v>
       </c>
@@ -2161,20 +2223,20 @@
         <f>N32+N36</f>
         <v>6675</v>
       </c>
-      <c r="P38" s="29" t="s">
+      <c r="P38" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="Q38" s="30">
+      <c r="Q38" s="29">
         <f>I35+I36+I37+I32</f>
         <v>1.732920048041512E-2</v>
       </c>
-      <c r="R38" s="31">
-        <f>H35+H36+H37+H32</f>
-        <v>83570</v>
-      </c>
-      <c r="S38" s="31">
-        <f>K35+K36+K37+K32</f>
-        <v>30559.240640151504</v>
+      <c r="R38" s="35">
+        <f>(H35+H36+H37+H32)/$S$46</f>
+        <v>8.3570000000000005E-2</v>
+      </c>
+      <c r="S38" s="35">
+        <f>(K35+K36+K37+K32)/$S$46</f>
+        <v>3.0559240640151503E-2</v>
       </c>
       <c r="AC38" t="s">
         <v>97</v>
@@ -2187,7 +2249,7 @@
         <v>2734375</v>
       </c>
     </row>
-    <row r="39" spans="5:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="5:32">
       <c r="E39" t="s">
         <v>26</v>
       </c>
@@ -2215,23 +2277,23 @@
       <c r="N39" s="2">
         <v>1</v>
       </c>
-      <c r="P39" s="29" t="s">
+      <c r="P39" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="Q39" s="30">
+      <c r="Q39" s="29">
         <f>I33+I34</f>
         <v>1.6174196930386256E-2</v>
       </c>
-      <c r="R39" s="31">
-        <f>H33+H34</f>
-        <v>78000</v>
-      </c>
-      <c r="S39" s="31">
-        <f>K33+K34</f>
-        <v>28522.44549397891</v>
-      </c>
-    </row>
-    <row r="40" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="R39" s="35">
+        <f>(H33+H34)/$S$46</f>
+        <v>7.8E-2</v>
+      </c>
+      <c r="S39" s="35">
+        <f>(K33+K34)/$S$46</f>
+        <v>2.852244549397891E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="5:32">
       <c r="G40" s="2" t="s">
         <v>40</v>
       </c>
@@ -2240,20 +2302,20 @@
         <v>4488746</v>
       </c>
       <c r="K40" s="13"/>
-      <c r="P40" s="29" t="s">
+      <c r="P40" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="Q40" s="30">
+      <c r="Q40" s="29">
         <f>I28</f>
         <v>1.5966835431278741E-2</v>
       </c>
-      <c r="R40" s="31">
-        <f>H28</f>
-        <v>77000</v>
-      </c>
-      <c r="S40" s="31">
-        <f>K28</f>
-        <v>28156.773115850978</v>
+      <c r="R40" s="35">
+        <f>H28/$S$46</f>
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="S40" s="35">
+        <f>K28/$S$46</f>
+        <v>2.8156773115850978E-2</v>
       </c>
       <c r="AC40" t="s">
         <v>98</v>
@@ -2263,7 +2325,7 @@
         <v>144912</v>
       </c>
     </row>
-    <row r="41" spans="5:32" x14ac:dyDescent="0.2">
+    <row r="41" spans="5:32">
       <c r="E41" t="s">
         <v>27</v>
       </c>
@@ -2290,23 +2352,23 @@
         <f>N38+N39*N38</f>
         <v>13350</v>
       </c>
-      <c r="P41" s="29" t="s">
+      <c r="P41" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="Q41" s="30">
+      <c r="Q41" s="29">
         <f>I41</f>
         <v>6.9206900327133503E-2</v>
       </c>
-      <c r="R41" s="31">
-        <f>H41</f>
-        <v>333750</v>
-      </c>
-      <c r="S41" s="31">
-        <f>K41</f>
-        <v>333750</v>
-      </c>
-    </row>
-    <row r="42" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="R41" s="35">
+        <f>H41/$S$46</f>
+        <v>0.33374999999999999</v>
+      </c>
+      <c r="S41" s="35">
+        <f>K41/$S$46</f>
+        <v>0.33374999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="5:32">
       <c r="G42" s="3" t="s">
         <v>37</v>
       </c>
@@ -2325,38 +2387,43 @@
         <f>N41/N27*1000000</f>
         <v>333750</v>
       </c>
-      <c r="P42" s="29" t="s">
+      <c r="P42" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="Q42" s="30">
+      <c r="Q42" s="29">
         <f>I39</f>
         <v>6.8429294705480315E-2</v>
       </c>
-      <c r="R42" s="31">
-        <f>H39</f>
-        <v>330000</v>
-      </c>
-      <c r="S42" s="31">
-        <f>K39</f>
-        <v>120671.88478221846</v>
-      </c>
-    </row>
-    <row r="43" spans="5:32" x14ac:dyDescent="0.2">
-      <c r="P43" s="32"/>
-      <c r="Q43" s="30">
+      <c r="R42" s="35">
+        <f>H39/$S$46</f>
+        <v>0.33</v>
+      </c>
+      <c r="S42" s="35">
+        <f>K39/$S$46</f>
+        <v>0.12067188478221846</v>
+      </c>
+    </row>
+    <row r="43" spans="5:32">
+      <c r="P43" s="30"/>
+      <c r="Q43" s="29">
         <f>SUM(Q34:Q42)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="R43" s="31">
+      <c r="R43" s="35">
         <f>SUM(R34:R42)</f>
-        <v>4822496</v>
-      </c>
-      <c r="S43" s="31">
+        <v>4.822496000000001</v>
+      </c>
+      <c r="S43" s="35">
         <f>SUM(S34:S42)</f>
-        <v>1975160.4246322545</v>
-      </c>
-    </row>
-    <row r="46" spans="5:32" x14ac:dyDescent="0.2">
+        <v>1.9751604246322549</v>
+      </c>
+    </row>
+    <row r="45" spans="5:32">
+      <c r="S45" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="5:32">
       <c r="G46" t="s">
         <v>54</v>
       </c>
@@ -2369,8 +2436,12 @@
       <c r="M46">
         <v>21</v>
       </c>
-    </row>
-    <row r="47" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="S46">
+        <f>10^6</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="47" spans="5:32">
       <c r="F47" s="1" t="s">
         <v>57</v>
       </c>
@@ -2393,7 +2464,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="48" spans="5:32" x14ac:dyDescent="0.2">
+    <row r="48" spans="5:32">
       <c r="J48" t="s">
         <v>53</v>
       </c>
@@ -2407,7 +2478,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="49" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="5:24">
       <c r="E49" t="s">
         <v>55</v>
       </c>
@@ -2432,7 +2503,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="50" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="5:24">
       <c r="E50" t="s">
         <v>61</v>
       </c>
@@ -2460,7 +2531,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="51" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="5:24">
       <c r="E51" t="s">
         <v>58</v>
       </c>
@@ -2477,7 +2548,7 @@
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
     </row>
-    <row r="52" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="5:24">
       <c r="G52" s="8">
         <v>21</v>
       </c>
@@ -2494,7 +2565,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="5:24">
       <c r="G53" s="8">
         <v>28</v>
       </c>
@@ -2509,7 +2580,7 @@
         <v>1194054.8500000001</v>
       </c>
     </row>
-    <row r="54" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="5:24">
       <c r="G54" s="8">
         <v>65</v>
       </c>
@@ -2533,7 +2604,7 @@
         <v>57651.839999999997</v>
       </c>
     </row>
-    <row r="55" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="5:24">
       <c r="I55">
         <v>65</v>
       </c>
@@ -2551,7 +2622,7 @@
         <v>1050958.46</v>
       </c>
     </row>
-    <row r="56" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="56" spans="5:24">
       <c r="P56" s="1" t="s">
         <v>89</v>
       </c>
@@ -2565,7 +2636,7 @@
         <v>1194054.8478250001</v>
       </c>
     </row>
-    <row r="57" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="5:24">
       <c r="W57" t="s">
         <v>102</v>
       </c>
@@ -2573,7 +2644,7 @@
         <v>57651.841992000001</v>
       </c>
     </row>
-    <row r="58" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="5:24">
       <c r="P58" s="1" t="s">
         <v>37</v>
       </c>
@@ -2588,7 +2659,7 @@
         <v>1050958.459363</v>
       </c>
     </row>
-    <row r="59" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="5:24">
       <c r="W59" t="s">
         <v>104</v>
       </c>
@@ -2596,7 +2667,7 @@
         <v>2370165.828125</v>
       </c>
     </row>
-    <row r="60" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="5:24">
       <c r="H60" s="1" t="s">
         <v>84</v>
       </c>
@@ -2614,12 +2685,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="5:24">
       <c r="H61" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="5:24">
       <c r="P62" s="11" t="s">
         <v>94</v>
       </c>
@@ -2636,7 +2707,7 @@
         <v>4615179.1353129996</v>
       </c>
     </row>
-    <row r="63" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="5:24">
       <c r="P63" s="11" t="s">
         <v>78</v>
       </c>
@@ -2649,7 +2720,7 @@
         <v>333750</v>
       </c>
     </row>
-    <row r="64" spans="5:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="5:24">
       <c r="P64" s="11" t="s">
         <v>92</v>
       </c>
@@ -2662,7 +2733,7 @@
         <v>825355.3156726415</v>
       </c>
     </row>
-    <row r="65" spans="16:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="16:18">
       <c r="P65" s="11" t="s">
         <v>91</v>
       </c>
@@ -2675,7 +2746,7 @@
         <v>816055.10895961314</v>
       </c>
     </row>
-    <row r="66" spans="16:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="16:18">
       <c r="Q66" s="4">
         <f>SUM(Q63:Q65)</f>
         <v>4822496</v>
@@ -2685,7 +2756,7 @@
         <v>1975160.4246322548</v>
       </c>
     </row>
-    <row r="68" spans="16:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="16:18">
       <c r="Q68" t="s">
         <v>49</v>
       </c>
@@ -2702,6 +2773,9 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <ignoredErrors>
+    <ignoredError sqref="R34:R41" formula="1"/>
+  </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -2713,70 +2787,70 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:R72"/>
+  <dimension ref="C2:R75"/>
   <sheetViews>
-    <sheetView topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="L63" sqref="L63"/>
+    <sheetView showGridLines="0" topLeftCell="B26" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61:M72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="5" max="5" width="35" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" customWidth="1"/>
+    <col min="10" max="10" width="19.1640625" customWidth="1"/>
     <col min="16" max="16" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:17">
       <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:17">
       <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:17">
       <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:17">
       <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:17">
       <c r="C6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:17">
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:17">
       <c r="C8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:17">
       <c r="C9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:17">
       <c r="C10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:17">
       <c r="C11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:17">
       <c r="C12" t="s">
         <v>10</v>
       </c>
@@ -2787,7 +2861,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:17">
       <c r="C13" t="s">
         <v>11</v>
       </c>
@@ -2806,12 +2880,12 @@
         <v>1.61245154965971</v>
       </c>
     </row>
-    <row r="14" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:17">
       <c r="C14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:17">
       <c r="C15" t="s">
         <v>13</v>
       </c>
@@ -2819,12 +2893,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:17">
       <c r="C16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:18">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -2846,7 +2920,7 @@
         <v>2.734375</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18">
       <c r="O18" t="s">
         <v>47</v>
       </c>
@@ -2857,7 +2931,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18">
       <c r="K19" t="s">
         <v>46</v>
       </c>
@@ -2883,7 +2957,7 @@
         <v>0.53625027940096437</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18">
       <c r="P22" s="1" t="s">
         <v>28</v>
       </c>
@@ -2892,7 +2966,7 @@
         <v>0.5268259307828268</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18">
       <c r="I25" t="s">
         <v>71</v>
       </c>
@@ -2904,7 +2978,7 @@
         <v>4384379.9999999991</v>
       </c>
     </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:18">
       <c r="E26" t="s">
         <v>64</v>
       </c>
@@ -2932,7 +3006,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18">
       <c r="E27" t="s">
         <v>65</v>
       </c>
@@ -2962,7 +3036,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18">
       <c r="E28" t="s">
         <v>66</v>
       </c>
@@ -2981,7 +3055,7 @@
         <v>9.5273539263118715E-3</v>
       </c>
     </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:18">
       <c r="E29" t="s">
         <v>67</v>
       </c>
@@ -3011,7 +3085,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18">
       <c r="E30" t="s">
         <v>68</v>
       </c>
@@ -3048,7 +3122,7 @@
         <v>3.2882849999999997</v>
       </c>
     </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:18">
       <c r="E31" t="s">
         <v>69</v>
       </c>
@@ -3078,7 +3152,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:18">
       <c r="E32" t="s">
         <v>70</v>
       </c>
@@ -3101,7 +3175,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="33" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:14">
       <c r="E33" t="s">
         <v>72</v>
       </c>
@@ -3122,7 +3196,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="5:14">
       <c r="J34" s="9">
         <f>SUM(I26:I37)+I41+I39</f>
         <v>1</v>
@@ -3134,7 +3208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="5:14">
       <c r="M35" t="s">
         <v>36</v>
       </c>
@@ -3142,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="5:14">
       <c r="M36" s="2" t="s">
         <v>40</v>
       </c>
@@ -3151,7 +3225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="5:14">
       <c r="G38" s="2" t="s">
         <v>40</v>
       </c>
@@ -3171,7 +3245,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="39" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="5:14">
       <c r="E39" t="s">
         <v>26</v>
       </c>
@@ -3196,7 +3270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:14">
       <c r="G40" s="2" t="s">
         <v>40</v>
       </c>
@@ -3205,7 +3279,7 @@
         <v>3234000</v>
       </c>
     </row>
-    <row r="41" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="5:14">
       <c r="E41" t="s">
         <v>27</v>
       </c>
@@ -3229,7 +3303,7 @@
         <v>4990</v>
       </c>
     </row>
-    <row r="42" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="5:14">
       <c r="G42" s="3" t="s">
         <v>37</v>
       </c>
@@ -3245,7 +3319,7 @@
         <v>124750</v>
       </c>
     </row>
-    <row r="46" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="5:14">
       <c r="G46" t="s">
         <v>54</v>
       </c>
@@ -3259,7 +3333,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="5:14">
       <c r="F47" s="1" t="s">
         <v>57</v>
       </c>
@@ -3282,7 +3356,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="48" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="5:14">
       <c r="J48" t="s">
         <v>53</v>
       </c>
@@ -3296,7 +3370,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="49" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="5:18">
       <c r="E49" t="s">
         <v>55</v>
       </c>
@@ -3321,7 +3395,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="50" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="5:18">
       <c r="E50" t="s">
         <v>61</v>
       </c>
@@ -3349,7 +3423,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="51" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="5:18">
       <c r="E51" t="s">
         <v>58</v>
       </c>
@@ -3366,7 +3440,7 @@
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
     </row>
-    <row r="52" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="5:18">
       <c r="G52" s="8">
         <v>21</v>
       </c>
@@ -3380,7 +3454,7 @@
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
     </row>
-    <row r="53" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="5:18">
       <c r="G53" s="8">
         <v>28</v>
       </c>
@@ -3389,7 +3463,7 @@
         <v>0.69090909090909103</v>
       </c>
     </row>
-    <row r="54" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="5:18">
       <c r="G54" s="8">
         <v>65</v>
       </c>
@@ -3407,7 +3481,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="5:18">
       <c r="I55">
         <v>65</v>
       </c>
@@ -3419,56 +3493,56 @@
         <v>1.9249999999999998</v>
       </c>
     </row>
-    <row r="59" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="5:18">
       <c r="K59" s="16"/>
       <c r="L59" s="16"/>
       <c r="N59" s="16"/>
     </row>
-    <row r="60" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="5:18">
       <c r="J60" s="1"/>
-      <c r="Q60" s="33" t="s">
+      <c r="Q60" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="R60" s="35"/>
-    </row>
-    <row r="61" spans="5:18" x14ac:dyDescent="0.2">
-      <c r="K61" s="33" t="s">
+      <c r="R60" s="33"/>
+    </row>
+    <row r="61" spans="5:18">
+      <c r="K61" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="L61" s="34"/>
-      <c r="M61" s="35"/>
-      <c r="P61" s="25"/>
-      <c r="Q61" s="23" t="s">
+      <c r="L61" s="32"/>
+      <c r="M61" s="33"/>
+      <c r="P61" s="24"/>
+      <c r="Q61" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="R61" s="23" t="s">
+      <c r="R61" s="22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="5:18" x14ac:dyDescent="0.2">
-      <c r="J62" s="26"/>
+    <row r="62" spans="5:18">
+      <c r="J62" s="25"/>
       <c r="K62" s="17" t="s">
         <v>112</v>
       </c>
       <c r="L62" s="18" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="M62" s="19" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="P62" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="Q62" s="22">
+      <c r="Q62" s="34">
         <f>L72</f>
-        <v>3358750</v>
-      </c>
-      <c r="R62" s="22">
+        <v>3.3587500000000006</v>
+      </c>
+      <c r="R62" s="34">
         <f>M72</f>
-        <v>1306555.256356112</v>
-      </c>
-    </row>
-    <row r="63" spans="5:18" x14ac:dyDescent="0.2">
+        <v>1.3065552563561116</v>
+      </c>
+    </row>
+    <row r="63" spans="5:18">
       <c r="J63" s="20" t="s">
         <v>79</v>
       </c>
@@ -3476,55 +3550,55 @@
         <f>I27</f>
         <v>3.1261630070710832E-2</v>
       </c>
-      <c r="L63" s="22">
-        <f>H27</f>
-        <v>105000</v>
-      </c>
-      <c r="M63" s="22">
+      <c r="L63" s="34">
+        <f>H27/$M$75</f>
+        <v>0.105</v>
+      </c>
+      <c r="M63" s="34">
         <f>IF(EXACT(J63,"TSV"),L63,L63/Manager!$O$19)</f>
-        <v>38370.300531042587</v>
+        <v>3.8370300531042588E-2</v>
       </c>
       <c r="P63" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="Q63" s="22">
-        <f>Manager!P19*1000000</f>
-        <v>6661495.9086184362</v>
-      </c>
-      <c r="R63" s="22">
-        <f>Manager!N19*1000000</f>
-        <v>2434320</v>
-      </c>
-    </row>
-    <row r="64" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="Q63" s="34">
+        <f>Manager!P19</f>
+        <v>6.661495908618436</v>
+      </c>
+      <c r="R63" s="34">
+        <f>Manager!N19</f>
+        <v>2.43432</v>
+      </c>
+    </row>
+    <row r="64" spans="5:18">
       <c r="J64" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K64" s="21">
         <f>I31+I28</f>
         <v>1.4588760699665054E-2</v>
       </c>
-      <c r="L64" s="22">
-        <f>H31+H28</f>
-        <v>49000</v>
-      </c>
-      <c r="M64" s="22">
+      <c r="L64" s="34">
+        <f>(H31+H28)/$M$75</f>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="M64" s="34">
         <f>IF(EXACT(J64,"TSV"),L64,L64/Manager!$O$19)</f>
-        <v>17906.140247819876</v>
+        <v>1.7906140247819877E-2</v>
       </c>
       <c r="P64" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="Q64" s="24">
+      <c r="Q64" s="23">
         <f>Q62/Q63</f>
-        <v>0.50420356719795534</v>
-      </c>
-      <c r="R64" s="24">
+        <v>0.50420356719795545</v>
+      </c>
+      <c r="R64" s="23">
         <f>R62/R63</f>
-        <v>0.53672288620892572</v>
-      </c>
-    </row>
-    <row r="65" spans="10:18" x14ac:dyDescent="0.2">
+        <v>0.5367228862089255</v>
+      </c>
+    </row>
+    <row r="65" spans="10:18">
       <c r="J65" s="20" t="s">
         <v>107</v>
       </c>
@@ -3532,27 +3606,27 @@
         <f>I33</f>
         <v>0.15094901377000372</v>
       </c>
-      <c r="L65" s="22">
-        <f>H33</f>
-        <v>507000</v>
-      </c>
-      <c r="M65" s="22">
+      <c r="L65" s="34">
+        <f>H33/$M$75</f>
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="M65" s="34">
         <f>IF(EXACT(J65,"TSV"),L65,L65/Manager!$O$19)</f>
-        <v>185273.73684989134</v>
+        <v>0.18527373684989135</v>
       </c>
       <c r="P65" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="Q65" s="24">
+      <c r="Q65" s="23">
         <f>(L72-L70)/(Q63-L70)</f>
-        <v>0.49474158017005088</v>
-      </c>
-      <c r="R65" s="24">
+        <v>0.49474158017005093</v>
+      </c>
+      <c r="R65" s="23">
         <f>(M72-M70)/(R63-M70)</f>
-        <v>0.51169925845768349</v>
-      </c>
-    </row>
-    <row r="66" spans="10:18" x14ac:dyDescent="0.2">
+        <v>0.51169925845768338</v>
+      </c>
+    </row>
+    <row r="66" spans="10:18">
       <c r="J66" s="20" t="s">
         <v>80</v>
       </c>
@@ -3560,16 +3634,16 @@
         <f>I29</f>
         <v>0.17863788611834761</v>
       </c>
-      <c r="L66" s="22">
-        <f>H29</f>
-        <v>600000</v>
-      </c>
-      <c r="M66" s="22">
+      <c r="L66" s="34">
+        <f>H29/$M$75</f>
+        <v>0.6</v>
+      </c>
+      <c r="M66" s="34">
         <f>IF(EXACT(J66,"TSV"),L66,L66/Manager!$O$19)</f>
-        <v>219258.86017738623</v>
-      </c>
-    </row>
-    <row r="67" spans="10:18" x14ac:dyDescent="0.2">
+        <v>0.21925886017738622</v>
+      </c>
+    </row>
+    <row r="67" spans="10:18">
       <c r="J67" s="20" t="s">
         <v>81</v>
       </c>
@@ -3577,16 +3651,16 @@
         <f>I30</f>
         <v>0.4001488649050986</v>
       </c>
-      <c r="L67" s="22">
-        <f>H30</f>
-        <v>1344000</v>
-      </c>
-      <c r="M67" s="22">
+      <c r="L67" s="34">
+        <f>H30/$M$75</f>
+        <v>1.3440000000000001</v>
+      </c>
+      <c r="M67" s="34">
         <f>IF(EXACT(J67,"TSV"),L67,L67/Manager!$O$19)</f>
-        <v>491139.84679734515</v>
-      </c>
-    </row>
-    <row r="68" spans="10:18" x14ac:dyDescent="0.2">
+        <v>0.49113984679734518</v>
+      </c>
+    </row>
+    <row r="68" spans="10:18">
       <c r="J68" s="20" t="s">
         <v>82</v>
       </c>
@@ -3594,16 +3668,16 @@
         <f>I32</f>
         <v>1.9054707852623743E-2</v>
       </c>
-      <c r="L68" s="22">
-        <f>H32</f>
-        <v>64000</v>
-      </c>
-      <c r="M68" s="22">
+      <c r="L68" s="34">
+        <f>H32/$M$75</f>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="M68" s="34">
         <f>IF(EXACT(J68,"TSV"),L68,L68/Manager!$O$19)</f>
-        <v>23387.611752254528</v>
-      </c>
-    </row>
-    <row r="69" spans="10:18" x14ac:dyDescent="0.2">
+        <v>2.3387611752254532E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="10:18">
       <c r="J69" s="20" t="s">
         <v>83</v>
       </c>
@@ -3611,16 +3685,16 @@
         <f>I26</f>
         <v>0.16375139560848531</v>
       </c>
-      <c r="L69" s="22">
-        <f>H26</f>
-        <v>550000</v>
-      </c>
-      <c r="M69" s="22">
+      <c r="L69" s="34">
+        <f>H26/$M$75</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M69" s="34">
         <f>IF(EXACT(J69,"TSV"),L69,L69/Manager!$O$19)</f>
-        <v>200987.28849593736</v>
-      </c>
-    </row>
-    <row r="70" spans="10:18" x14ac:dyDescent="0.2">
+        <v>0.20098728849593739</v>
+      </c>
+    </row>
+    <row r="70" spans="10:18">
       <c r="J70" s="20" t="s">
         <v>78</v>
       </c>
@@ -3628,16 +3702,16 @@
         <f>I41</f>
         <v>3.7141793822106438E-2</v>
       </c>
-      <c r="L70" s="22">
-        <f>H41</f>
-        <v>124750</v>
-      </c>
-      <c r="M70" s="22">
+      <c r="L70" s="34">
+        <f>H41/$M$75</f>
+        <v>0.12475</v>
+      </c>
+      <c r="M70" s="34">
         <f>IF(EXACT(J70,"TSV"),L70,L70/Manager!$O$19)</f>
-        <v>124750</v>
-      </c>
-    </row>
-    <row r="71" spans="10:18" x14ac:dyDescent="0.2">
+        <v>0.12475</v>
+      </c>
+    </row>
+    <row r="71" spans="10:18">
       <c r="J71" s="20" t="s">
         <v>77</v>
       </c>
@@ -3645,16 +3719,16 @@
         <f>I39</f>
         <v>4.4659471529586896E-3</v>
       </c>
-      <c r="L71" s="22">
-        <f>H39</f>
-        <v>15000</v>
-      </c>
-      <c r="M71" s="22">
+      <c r="L71" s="34">
+        <f>H39/$M$75</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M71" s="34">
         <f>IF(EXACT(J71,"TSV"),L71,L71/Manager!$O$19)</f>
-        <v>5481.4715044346558</v>
-      </c>
-    </row>
-    <row r="72" spans="10:18" x14ac:dyDescent="0.2">
+        <v>5.4814715044346554E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="10:18">
       <c r="J72" s="20" t="s">
         <v>37</v>
       </c>
@@ -3662,13 +3736,23 @@
         <f>SUM(K63:K71)</f>
         <v>1</v>
       </c>
-      <c r="L72" s="22">
+      <c r="L72" s="34">
         <f>SUM(L63:L71)</f>
-        <v>3358750</v>
-      </c>
-      <c r="M72" s="22">
+        <v>3.3587500000000006</v>
+      </c>
+      <c r="M72" s="34">
         <f>SUM(M63:M71)</f>
-        <v>1306555.256356112</v>
+        <v>1.3065552563561116</v>
+      </c>
+    </row>
+    <row r="74" spans="10:18">
+      <c r="M74" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="10:18">
+      <c r="M75" s="14">
+        <v>1000000</v>
       </c>
     </row>
   </sheetData>
@@ -3694,14 +3778,14 @@
       <selection activeCell="K15" sqref="K15:L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="4" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="5:8">
       <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="5:8">
       <c r="E5">
         <f>Manager!H40</f>
         <v>4488746</v>
@@ -3719,7 +3803,7 @@
         <v>7722746</v>
       </c>
     </row>
-    <row r="6" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="5:8">
       <c r="E6">
         <f>E5/Manager!O19</f>
         <v>1640328.8859763362</v>

--- a/DOC/AreaEstimates.xlsx
+++ b/DOC/AreaEstimates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="2040" windowWidth="51200" windowHeight="27040" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Manager" sheetId="2" r:id="rId1"/>
@@ -871,6 +871,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -879,12 +885,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="219">
@@ -1445,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:AF68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="U32" sqref="U32:W37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J8" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1543,10 +1543,10 @@
         <f>X59/X62</f>
         <v>0.51355879341490751</v>
       </c>
-      <c r="N13" s="31" t="s">
+      <c r="N13" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="O13" s="33"/>
+      <c r="O13" s="35"/>
     </row>
     <row r="14" spans="3:17">
       <c r="C14" t="s">
@@ -1916,15 +1916,15 @@
         <f>SUM(N29:N31)</f>
         <v>2495</v>
       </c>
-      <c r="Q32" s="31" t="s">
+      <c r="Q32" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="R32" s="32"/>
-      <c r="S32" s="33"/>
-      <c r="V32" s="31" t="s">
+      <c r="R32" s="34"/>
+      <c r="S32" s="35"/>
+      <c r="V32" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="W32" s="33"/>
+      <c r="W32" s="35"/>
     </row>
     <row r="33" spans="5:32">
       <c r="E33" t="s">
@@ -2003,22 +2003,22 @@
         <f>I26+I27</f>
         <v>0.20611733011287103</v>
       </c>
-      <c r="R34" s="35">
+      <c r="R34" s="32">
         <f>(H26+H27)/$S$46</f>
         <v>0.99399999999999999</v>
       </c>
-      <c r="S34" s="35">
+      <c r="S34" s="32">
         <f>(K26+K27)/$S$46</f>
         <v>0.36347834385916716</v>
       </c>
       <c r="U34" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="V34" s="34">
+      <c r="V34" s="31">
         <f>R43</f>
         <v>4.822496000000001</v>
       </c>
-      <c r="W34" s="34">
+      <c r="W34" s="31">
         <f>S43</f>
         <v>1.9751604246322549</v>
       </c>
@@ -2059,22 +2059,22 @@
         <f>I29</f>
         <v>6.9466102201017899E-2</v>
       </c>
-      <c r="R35" s="35">
+      <c r="R35" s="32">
         <f>H29/$S$46</f>
         <v>0.33500000000000002</v>
       </c>
-      <c r="S35" s="35">
+      <c r="S35" s="32">
         <f>K29/$S$46</f>
         <v>0.12250024667285814</v>
       </c>
       <c r="U35" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="V35" s="34">
+      <c r="V35" s="31">
         <f>P19</f>
         <v>6.661495908618436</v>
       </c>
-      <c r="W35" s="34">
+      <c r="W35" s="31">
         <f>N19</f>
         <v>2.43432</v>
       </c>
@@ -2119,11 +2119,11 @@
         <f>I30</f>
         <v>0.47074709859790448</v>
       </c>
-      <c r="R36" s="35">
+      <c r="R36" s="32">
         <f>H30/$S$46</f>
         <v>2.2701760000000002</v>
       </c>
-      <c r="S36" s="35">
+      <c r="S36" s="32">
         <f>K30/$S$46</f>
         <v>0.83014065668896242</v>
       </c>
@@ -2172,11 +2172,11 @@
         <f>I31</f>
         <v>6.6563041213512669E-2</v>
       </c>
-      <c r="R37" s="35">
+      <c r="R37" s="32">
         <f>H31/$S$46</f>
         <v>0.32100000000000001</v>
       </c>
-      <c r="S37" s="35">
+      <c r="S37" s="32">
         <f>K31/$S$46</f>
         <v>0.11738083337906706</v>
       </c>
@@ -2230,11 +2230,11 @@
         <f>I35+I36+I37+I32</f>
         <v>1.732920048041512E-2</v>
       </c>
-      <c r="R38" s="35">
+      <c r="R38" s="32">
         <f>(H35+H36+H37+H32)/$S$46</f>
         <v>8.3570000000000005E-2</v>
       </c>
-      <c r="S38" s="35">
+      <c r="S38" s="32">
         <f>(K35+K36+K37+K32)/$S$46</f>
         <v>3.0559240640151503E-2</v>
       </c>
@@ -2284,11 +2284,11 @@
         <f>I33+I34</f>
         <v>1.6174196930386256E-2</v>
       </c>
-      <c r="R39" s="35">
+      <c r="R39" s="32">
         <f>(H33+H34)/$S$46</f>
         <v>7.8E-2</v>
       </c>
-      <c r="S39" s="35">
+      <c r="S39" s="32">
         <f>(K33+K34)/$S$46</f>
         <v>2.852244549397891E-2</v>
       </c>
@@ -2309,11 +2309,11 @@
         <f>I28</f>
         <v>1.5966835431278741E-2</v>
       </c>
-      <c r="R40" s="35">
+      <c r="R40" s="32">
         <f>H28/$S$46</f>
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="S40" s="35">
+      <c r="S40" s="32">
         <f>K28/$S$46</f>
         <v>2.8156773115850978E-2</v>
       </c>
@@ -2359,11 +2359,11 @@
         <f>I41</f>
         <v>6.9206900327133503E-2</v>
       </c>
-      <c r="R41" s="35">
+      <c r="R41" s="32">
         <f>H41/$S$46</f>
         <v>0.33374999999999999</v>
       </c>
-      <c r="S41" s="35">
+      <c r="S41" s="32">
         <f>K41/$S$46</f>
         <v>0.33374999999999999</v>
       </c>
@@ -2394,11 +2394,11 @@
         <f>I39</f>
         <v>6.8429294705480315E-2</v>
       </c>
-      <c r="R42" s="35">
+      <c r="R42" s="32">
         <f>H39/$S$46</f>
         <v>0.33</v>
       </c>
-      <c r="S42" s="35">
+      <c r="S42" s="32">
         <f>K39/$S$46</f>
         <v>0.12067188478221846</v>
       </c>
@@ -2409,11 +2409,11 @@
         <f>SUM(Q34:Q42)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="R43" s="35">
+      <c r="R43" s="32">
         <f>SUM(R34:R42)</f>
         <v>4.822496000000001</v>
       </c>
-      <c r="S43" s="35">
+      <c r="S43" s="32">
         <f>SUM(S34:S42)</f>
         <v>1.9751604246322549</v>
       </c>
@@ -2789,8 +2789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:R75"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B26" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61:M72"/>
+    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="Q19">
         <f>H42/P19/1000000</f>
-        <v>0.53625027940096437</v>
+        <v>0.54620892805824317</v>
       </c>
     </row>
     <row r="22" spans="3:18">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="Q22">
         <f>(H42-H41)/(P19*1000000-H41)</f>
-        <v>0.5268259307828268</v>
+        <v>0.532233975585371</v>
       </c>
     </row>
     <row r="25" spans="3:18">
@@ -2994,7 +2994,7 @@
       </c>
       <c r="I26" s="9">
         <f>H26/$H$42</f>
-        <v>0.16375139560848531</v>
+        <v>0.16076582995359714</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>41</v>
@@ -3022,7 +3022,7 @@
       </c>
       <c r="I27" s="9">
         <f t="shared" ref="I27:I33" si="1">H27/$H$42</f>
-        <v>3.1261630070710832E-2</v>
+        <v>3.0691658445686727E-2</v>
       </c>
       <c r="L27" s="4">
         <v>5.0000000000000001E-3</v>
@@ -3052,7 +3052,7 @@
       </c>
       <c r="I28" s="9">
         <f t="shared" si="1"/>
-        <v>9.5273539263118715E-3</v>
+        <v>9.3536482882092872E-3</v>
       </c>
     </row>
     <row r="29" spans="3:18">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="I29" s="9">
         <f t="shared" si="1"/>
-        <v>0.17863788611834761</v>
+        <v>0.17538090540392415</v>
       </c>
       <c r="L29">
         <f>4100*2</f>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="I30" s="9">
         <f t="shared" si="1"/>
-        <v>0.4001488649050986</v>
+        <v>0.39285322810479006</v>
       </c>
       <c r="L30">
         <f>2700*2</f>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="I31" s="9">
         <f t="shared" si="1"/>
-        <v>5.0614067733531819E-3</v>
+        <v>4.9691256531111845E-3</v>
       </c>
       <c r="L31">
         <f>L29+L30</f>
@@ -3168,7 +3168,7 @@
       </c>
       <c r="I32" s="9">
         <f t="shared" si="1"/>
-        <v>1.9054707852623743E-2</v>
+        <v>1.8707296576418574E-2</v>
       </c>
       <c r="N32">
         <f>SUM(N29:N31)</f>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="I33" s="9">
         <f t="shared" si="1"/>
-        <v>0.15094901377000372</v>
+        <v>0.14819686506631591</v>
       </c>
       <c r="J33" t="s">
         <v>108</v>
@@ -3261,13 +3261,13 @@
       </c>
       <c r="I39" s="9">
         <f>H39/$H$42</f>
-        <v>4.4659471529586896E-3</v>
+        <v>4.3845226350981035E-3</v>
       </c>
       <c r="M39" t="s">
         <v>38</v>
       </c>
       <c r="N39" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="5:14">
@@ -3285,22 +3285,22 @@
       </c>
       <c r="F41">
         <f>N42</f>
-        <v>124750</v>
+        <v>187125</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41">
         <f>F41*G41</f>
-        <v>124750</v>
+        <v>187125</v>
       </c>
       <c r="I41" s="9">
         <f>H41/$H$42</f>
-        <v>3.7141793822106438E-2</v>
+        <v>5.4696919872848845E-2</v>
       </c>
       <c r="N41">
         <f>N38+N39*N38</f>
-        <v>4990</v>
+        <v>7485</v>
       </c>
     </row>
     <row r="42" spans="5:14">
@@ -3309,14 +3309,14 @@
       </c>
       <c r="H42" s="2">
         <f>H40+H41</f>
-        <v>3358750</v>
+        <v>3421125</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>39</v>
       </c>
       <c r="N42" s="2">
         <f>N41/N27*1000000</f>
-        <v>124750</v>
+        <v>187125</v>
       </c>
     </row>
     <row r="46" spans="5:14">
@@ -3500,17 +3500,17 @@
     </row>
     <row r="60" spans="5:18">
       <c r="J60" s="1"/>
-      <c r="Q60" s="31" t="s">
+      <c r="Q60" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="R60" s="33"/>
+      <c r="R60" s="35"/>
     </row>
     <row r="61" spans="5:18">
-      <c r="K61" s="31" t="s">
+      <c r="K61" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="L61" s="32"/>
-      <c r="M61" s="33"/>
+      <c r="L61" s="34"/>
+      <c r="M61" s="35"/>
       <c r="P61" s="24"/>
       <c r="Q61" s="22" t="s">
         <v>93</v>
@@ -3533,13 +3533,13 @@
       <c r="P62" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="Q62" s="34">
+      <c r="Q62" s="31">
         <f>L72</f>
-        <v>3.3587500000000006</v>
-      </c>
-      <c r="R62" s="34">
+        <v>3.4211250000000004</v>
+      </c>
+      <c r="R62" s="31">
         <f>M72</f>
-        <v>1.3065552563561116</v>
+        <v>1.3689302563561117</v>
       </c>
     </row>
     <row r="63" spans="5:18">
@@ -3548,24 +3548,24 @@
       </c>
       <c r="K63" s="21">
         <f>I27</f>
-        <v>3.1261630070710832E-2</v>
-      </c>
-      <c r="L63" s="34">
+        <v>3.0691658445686727E-2</v>
+      </c>
+      <c r="L63" s="31">
         <f>H27/$M$75</f>
         <v>0.105</v>
       </c>
-      <c r="M63" s="34">
+      <c r="M63" s="31">
         <f>IF(EXACT(J63,"TSV"),L63,L63/Manager!$O$19)</f>
         <v>3.8370300531042588E-2</v>
       </c>
       <c r="P63" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="Q63" s="34">
+      <c r="Q63" s="31">
         <f>Manager!P19</f>
         <v>6.661495908618436</v>
       </c>
-      <c r="R63" s="34">
+      <c r="R63" s="31">
         <f>Manager!N19</f>
         <v>2.43432</v>
       </c>
@@ -3576,13 +3576,13 @@
       </c>
       <c r="K64" s="21">
         <f>I31+I28</f>
-        <v>1.4588760699665054E-2</v>
-      </c>
-      <c r="L64" s="34">
+        <v>1.4322773941320472E-2</v>
+      </c>
+      <c r="L64" s="31">
         <f>(H31+H28)/$M$75</f>
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="M64" s="34">
+      <c r="M64" s="31">
         <f>IF(EXACT(J64,"TSV"),L64,L64/Manager!$O$19)</f>
         <v>1.7906140247819877E-2</v>
       </c>
@@ -3591,11 +3591,11 @@
       </c>
       <c r="Q64" s="23">
         <f>Q62/Q63</f>
-        <v>0.50420356719795545</v>
+        <v>0.51356707966657389</v>
       </c>
       <c r="R64" s="23">
         <f>R62/R63</f>
-        <v>0.5367228862089255</v>
+        <v>0.56234605818302918</v>
       </c>
     </row>
     <row r="65" spans="10:18">
@@ -3604,13 +3604,13 @@
       </c>
       <c r="K65" s="21">
         <f>I33</f>
-        <v>0.15094901377000372</v>
-      </c>
-      <c r="L65" s="34">
+        <v>0.14819686506631591</v>
+      </c>
+      <c r="L65" s="31">
         <f>H33/$M$75</f>
         <v>0.50700000000000001</v>
       </c>
-      <c r="M65" s="34">
+      <c r="M65" s="31">
         <f>IF(EXACT(J65,"TSV"),L65,L65/Manager!$O$19)</f>
         <v>0.18527373684989135</v>
       </c>
@@ -3619,11 +3619,11 @@
       </c>
       <c r="Q65" s="23">
         <f>(L72-L70)/(Q63-L70)</f>
-        <v>0.49474158017005093</v>
+        <v>0.49950799014233532</v>
       </c>
       <c r="R65" s="23">
         <f>(M72-M70)/(R63-M70)</f>
-        <v>0.51169925845768338</v>
+        <v>0.52590240560169976</v>
       </c>
     </row>
     <row r="66" spans="10:18">
@@ -3632,13 +3632,13 @@
       </c>
       <c r="K66" s="21">
         <f>I29</f>
-        <v>0.17863788611834761</v>
-      </c>
-      <c r="L66" s="34">
+        <v>0.17538090540392415</v>
+      </c>
+      <c r="L66" s="31">
         <f>H29/$M$75</f>
         <v>0.6</v>
       </c>
-      <c r="M66" s="34">
+      <c r="M66" s="31">
         <f>IF(EXACT(J66,"TSV"),L66,L66/Manager!$O$19)</f>
         <v>0.21925886017738622</v>
       </c>
@@ -3649,13 +3649,13 @@
       </c>
       <c r="K67" s="21">
         <f>I30</f>
-        <v>0.4001488649050986</v>
-      </c>
-      <c r="L67" s="34">
+        <v>0.39285322810479006</v>
+      </c>
+      <c r="L67" s="31">
         <f>H30/$M$75</f>
         <v>1.3440000000000001</v>
       </c>
-      <c r="M67" s="34">
+      <c r="M67" s="31">
         <f>IF(EXACT(J67,"TSV"),L67,L67/Manager!$O$19)</f>
         <v>0.49113984679734518</v>
       </c>
@@ -3666,13 +3666,13 @@
       </c>
       <c r="K68" s="21">
         <f>I32</f>
-        <v>1.9054707852623743E-2</v>
-      </c>
-      <c r="L68" s="34">
+        <v>1.8707296576418574E-2</v>
+      </c>
+      <c r="L68" s="31">
         <f>H32/$M$75</f>
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="M68" s="34">
+      <c r="M68" s="31">
         <f>IF(EXACT(J68,"TSV"),L68,L68/Manager!$O$19)</f>
         <v>2.3387611752254532E-2</v>
       </c>
@@ -3683,13 +3683,13 @@
       </c>
       <c r="K69" s="21">
         <f>I26</f>
-        <v>0.16375139560848531</v>
-      </c>
-      <c r="L69" s="34">
+        <v>0.16076582995359714</v>
+      </c>
+      <c r="L69" s="31">
         <f>H26/$M$75</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="M69" s="34">
+      <c r="M69" s="31">
         <f>IF(EXACT(J69,"TSV"),L69,L69/Manager!$O$19)</f>
         <v>0.20098728849593739</v>
       </c>
@@ -3700,15 +3700,15 @@
       </c>
       <c r="K70" s="21">
         <f>I41</f>
-        <v>3.7141793822106438E-2</v>
-      </c>
-      <c r="L70" s="34">
+        <v>5.4696919872848845E-2</v>
+      </c>
+      <c r="L70" s="31">
         <f>H41/$M$75</f>
-        <v>0.12475</v>
-      </c>
-      <c r="M70" s="34">
+        <v>0.18712500000000001</v>
+      </c>
+      <c r="M70" s="31">
         <f>IF(EXACT(J70,"TSV"),L70,L70/Manager!$O$19)</f>
-        <v>0.12475</v>
+        <v>0.18712500000000001</v>
       </c>
     </row>
     <row r="71" spans="10:18">
@@ -3717,13 +3717,13 @@
       </c>
       <c r="K71" s="21">
         <f>I39</f>
-        <v>4.4659471529586896E-3</v>
-      </c>
-      <c r="L71" s="34">
+        <v>4.3845226350981035E-3</v>
+      </c>
+      <c r="L71" s="31">
         <f>H39/$M$75</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M71" s="34">
+      <c r="M71" s="31">
         <f>IF(EXACT(J71,"TSV"),L71,L71/Manager!$O$19)</f>
         <v>5.4814715044346554E-3</v>
       </c>
@@ -3736,13 +3736,13 @@
         <f>SUM(K63:K71)</f>
         <v>1</v>
       </c>
-      <c r="L72" s="34">
+      <c r="L72" s="31">
         <f>SUM(L63:L71)</f>
-        <v>3.3587500000000006</v>
-      </c>
-      <c r="M72" s="34">
+        <v>3.4211250000000004</v>
+      </c>
+      <c r="M72" s="31">
         <f>SUM(M63:M71)</f>
-        <v>1.3065552563561116</v>
+        <v>1.3689302563561117</v>
       </c>
     </row>
     <row r="74" spans="10:18">
